--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_bldsk_1_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>zh_CN</t>
   </si>
@@ -32,7 +32,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">캄캄한 밤을 누비는 악몽, 어린아이들만 잡아가 피를 뽑는 혈마 대왕이 강림한다!
+    <t xml:space="preserve">闇夜に潜む悪夢――夜な夜な子供を捕らえては生き血を抜くという恐怖のブラッドブルード様が降臨！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The nightmare that walks the night—The Vampire who kidnaps children to suck their blood is here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">캄캄한 밤을 누비는 악몽, 어린아이들만 잡아가 피를 뽑는 뱀파이어님의 강림이니라!
 </t>
   </si>
 </sst>
@@ -416,13 +424,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
